--- a/read_files/data/data.xlsx
+++ b/read_files/data/data.xlsx
@@ -133,10 +133,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +455,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,8 +982,8 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>249</v>
+      <c r="C31" s="1">
+        <v>13079</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -986,5 +994,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>